--- a/stage_1/Basic_Protection_Sharing/Basic_protection_sharing.xlsx
+++ b/stage_1/Basic_Protection_Sharing/Basic_protection_sharing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Protection_Sharing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04061341-B836-4961-9BA2-009AD6C64E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C1FBD3-A035-4819-9C07-77C6CAD39D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,9 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +429,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,7 +473,7 @@
       <c r="D2">
         <v>350000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>12</v>
       </c>
       <c r="F2" t="s">
@@ -490,7 +493,7 @@
       <c r="D3">
         <v>75000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>25</v>
       </c>
       <c r="F3" t="s">
@@ -510,7 +513,7 @@
       <c r="D4">
         <v>500</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>200</v>
       </c>
       <c r="F4" t="s">
@@ -530,7 +533,7 @@
       <c r="D5">
         <v>180000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>8</v>
       </c>
       <c r="F5" t="s">
@@ -550,7 +553,7 @@
       <c r="D6">
         <v>65000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" t="s">
@@ -558,6 +561,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="PCq78gyfi8/MA6FV8UQF2UI7+fC2AUdNo2Dp/ktZnKmc5/hI2Ad505TGexU4NEwXTjeEpvCAOzbFStJRVwKkAg==" saltValue="X+RhchWibplEaXqMKOESMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/stage_1/Basic_Protection_Sharing/Basic_protection_sharing.xlsx
+++ b/stage_1/Basic_Protection_Sharing/Basic_protection_sharing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Protection_Sharing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C1FBD3-A035-4819-9C07-77C6CAD39D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC7291F-C49C-4896-B978-8F9E330EE174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PCq78gyfi8/MA6FV8UQF2UI7+fC2AUdNo2Dp/ktZnKmc5/hI2Ad505TGexU4NEwXTjeEpvCAOzbFStJRVwKkAg==" saltValue="X+RhchWibplEaXqMKOESMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pkWigBZfa3jk4syFn0XFlquXoa1D7t5WHxaC8Y90LgNCjkh41iZmcFTyYalbi4uQ/b+35TIEkj/zHhm9IHdiXw==" saltValue="X1EngQ+7E2YVI5kBnYilJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
